--- a/cases.xlsx
+++ b/cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\areo3\PycharmProjects\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CB395F-22BB-4B8B-96CD-E57C78A54EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8988F0A3-BD5E-41C9-9235-B3943DBFE8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25710" yWindow="-80" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>url</t>
   </si>
@@ -79,19 +79,6 @@
   </si>
   <si>
     <t>/login</t>
-  </si>
-  <si>
-    <t>{_x000D_
-    "text": "test_text",_x000D_
-    "tag": [_x000D_
-        {_x000D_
-            "tagContent": "test_tagContent1"_x000D_
-        },_x000D_
-        {_x000D_
-            "tagContent": "test_tagContent2"_x000D_
-        }_x000D_
-    ]_x000D_
-}</t>
   </si>
   <si>
     <t>{_x000D_
@@ -112,6 +99,35 @@
     "phoneNumber":"12345678902",_x000D_
     "password":"12345678"_x000D_
 }</t>
+  </si>
+  <si>
+    <t>{
+    "text": "test_text",
+    "tag": [
+        {
+            "tagContent": "test_tagContent1"
+        },
+        {
+            "tagContent": "test_tagContent2"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{"code": 1, "msg": "success", "data": {"content": [], "totalPages": 0, "totalElements": 0}}</t>
+  </si>
+  <si>
+    <t>{"code": 0, "msg": "success", "data": {"content": [], "totalPages": 0, "totalElements": 0}}</t>
+  </si>
+  <si>
+    <t>{"code": 0}</t>
+  </si>
+  <si>
+    <t>{"code": 0, "msg": "success", "data": {_x000D_
+    "content": ["item1", "item2"],_x000D_
+    "totalPages": 1,_x000D_
+    "totalElements": 2_x000D_
+}}</t>
   </si>
 </sst>
 </file>
@@ -446,7 +462,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F1" sqref="F1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -487,11 +503,11 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>200</v>
+      <c r="F2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -500,10 +516,10 @@
       </c>
       <c r="C3" s="1"/>
       <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3">
-        <v>200</v>
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -516,11 +532,11 @@
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4">
-        <v>200</v>
+      <c r="F4" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -529,13 +545,13 @@
       </c>
       <c r="C5" s="1"/>
       <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5">
-        <v>200</v>
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -546,10 +562,10 @@
         <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6">
-        <v>200</v>
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
